--- a/Model_Inputs_project_basic.xlsx
+++ b/Model_Inputs_project_basic.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>Explanations</t>
   </si>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>Percentage</t>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -294,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,9 +340,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -661,30 +655,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="18" width="23.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="19" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="19" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="19" width="6.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="19" width="6.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="19" width="6.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="19" width="5.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="19" width="6.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="19" width="5.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="19" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="19" width="6.147857142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="19" width="6.005" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="19" width="5.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="19" width="6.2907142857142855" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="19" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="19" width="9.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="19" width="6.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="19" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="19" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="19" width="5.433571428571429" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="19" width="3.7192857142857143" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="17" width="23.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="18" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="18" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="18" width="6.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="18" width="6.005" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="18" width="6.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="18" width="5.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="18" width="6.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="18" width="5.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="18" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="18" width="6.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="18" width="6.005" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="18" width="5.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="18" width="6.2907142857142855" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="18" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="18" width="9.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="18" width="6.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="18" width="5.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="18" width="3.7192857142857143" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
@@ -1162,13 +1156,9 @@
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
-      <c r="O12" s="17" t="s">
-        <v>53</v>
-      </c>
+      <c r="O12" s="12"/>
       <c r="P12" s="12"/>
-      <c r="Q12" s="17" t="s">
-        <v>53</v>
-      </c>
+      <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
       <c r="S12" s="12"/>
       <c r="T12" s="12"/>
@@ -1192,13 +1182,9 @@
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
-      <c r="O13" s="17" t="s">
-        <v>53</v>
-      </c>
+      <c r="O13" s="12"/>
       <c r="P13" s="12"/>
-      <c r="Q13" s="17" t="s">
-        <v>53</v>
-      </c>
+      <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
       <c r="S13" s="12"/>
       <c r="T13" s="12"/>
@@ -1222,13 +1208,9 @@
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
-      <c r="O14" s="17" t="s">
-        <v>53</v>
-      </c>
+      <c r="O14" s="12"/>
       <c r="P14" s="12"/>
-      <c r="Q14" s="17" t="s">
-        <v>53</v>
-      </c>
+      <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
       <c r="T14" s="12"/>
